--- a/data/income_statement/3digits/total/681_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/681_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>681-Buying and selling of own real estate</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>681-Buying and selling of own real estate</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>76048.67031999999</v>
@@ -962,31 +868,36 @@
         <v>176995.21904</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>519690.62107</v>
+        <v>524123.81072</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1066870.73232</v>
+        <v>1067300.73232</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>613251.6159200001</v>
+        <v>750761.64535</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>674536.3494899999</v>
+        <v>674648.07205</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1183656.80334</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3478954.4683</v>
+        <v>3479352.68876</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2447542.50878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2453004.96073</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2438452.167</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>73625.44331999999</v>
@@ -1004,28 +915,33 @@
         <v>448661.15903</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>962891.41026</v>
+        <v>963321.41026</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>513359.30641</v>
+        <v>642564.69199</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>626346.08387</v>
+        <v>626456.97496</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1131247.00691</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3234224.65151</v>
+        <v>3234622.87197</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2354244.42986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2356922.2173</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2326577.558</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11.61545</v>
@@ -1037,19 +953,19 @@
         <v>24205.93513</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>50621.42204999999</v>
+        <v>50621.42205</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>57727.06597</v>
+        <v>62160.25562</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>86699.19723000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>75778.33781999999</v>
+        <v>83006.49845</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16597.40551</v>
+        <v>16598.23698</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>5996.708</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>18374.25031</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>40358.737</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>2411.61155</v>
@@ -1073,7 +994,7 @@
         <v>1344.38039</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>924.7383600000001</v>
+        <v>924.7383599999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>2613.80922</v>
@@ -1085,25 +1006,30 @@
         <v>17280.12483</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>24113.97169</v>
+        <v>25190.45491</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>31592.86011</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>46413.08842999999</v>
+        <v>46413.08843</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>62354.92509999999</v>
+        <v>62354.9251</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>74923.82861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>77708.49312</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>71515.872</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1394.92418</v>
@@ -1118,13 +1044,13 @@
         <v>2100.20562</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5442.11914</v>
+        <v>5442.119140000001</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>4703.0047</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7311.46399</v>
+        <v>8286.597119999999</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>4067.48045</v>
@@ -1136,13 +1062,18 @@
         <v>47098.67339</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>45258.24565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>45468.24565</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>43666.172</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1271.76727</v>
@@ -1163,7 +1094,7 @@
         <v>3004.494889999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3609.04427</v>
+        <v>4584.1774</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>2325.97</v>
@@ -1172,16 +1103,21 @@
         <v>12312.92208</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>38440.84312</v>
+        <v>38440.84312000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>39788.06298999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>39998.06299</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>38335.425</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>123.15691</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>5242.75187</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>5254.656</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>227.43079</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>76.09099999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>74653.74614</v>
@@ -1274,70 +1220,80 @@
         <v>174895.01342</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>514248.50193</v>
+        <v>518681.6915799999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1062167.72762</v>
+        <v>1062597.72762</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>605940.1519300001</v>
+        <v>742475.0482300001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>670468.8690400001</v>
+        <v>670580.5915999999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1169641.9967</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3431855.79491</v>
+        <v>3432254.01537</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2402284.26313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2407536.71508</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2394785.995</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>60328.70066999999</v>
+        <v>60328.70067</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>44565.5707</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>80976.28220999999</v>
+        <v>80976.28221</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>115758.21226</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>381123.0198500001</v>
+        <v>381123.01985</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>701564.39008</v>
+        <v>701570.9975200001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>452464.9393799999</v>
+        <v>533863.9890800001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>431093.59555</v>
+        <v>431203.59555</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>906602.9567999999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2706894.44565</v>
+        <v>2707279.02514</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2314988.92935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2316178.37305</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2159659.522</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>947.44632</v>
@@ -1349,7 +1305,7 @@
         <v>8166.73149</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6693.868979999999</v>
+        <v>6693.86898</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>129091.26978</v>
@@ -1358,25 +1314,30 @@
         <v>378857.47052</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>22068.63594</v>
+        <v>22235.94044</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>23415.27944</v>
+        <v>23525.27944</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>133691.86823</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>676655.88165</v>
+        <v>676655.8816500001</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>1165556.51635</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>820898.5699999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>42753.40577</v>
@@ -1388,7 +1349,7 @@
         <v>61696.51742</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>86821.46166000002</v>
+        <v>86821.46166</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>233063.82931</v>
@@ -1397,7 +1358,7 @@
         <v>287064.2041</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>322429.39823</v>
+        <v>403474.82106</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>211669.52374</v>
@@ -1406,16 +1367,21 @@
         <v>274573.85101</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1112763.17007</v>
+        <v>1113120.37632</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>728363.90224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>728843.8479100001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>849447.831</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>16618.7336</v>
@@ -1433,28 +1399,33 @@
         <v>15583.34602</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>32933.00376</v>
+        <v>32939.61119999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>74434.98847999999</v>
+        <v>74621.31084999999</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>192132.11129</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>495105.6310999999</v>
+        <v>495105.6311</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>878078.7668099999</v>
+        <v>878106.1400499999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>404677.87372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>405387.37175</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>451079.234</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>9.114979999999999</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>16390.63704</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>38233.887</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>14325.04547</v>
@@ -1508,31 +1484,36 @@
         <v>59136.80116</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>133125.48208</v>
+        <v>137558.67173</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>360603.33754</v>
+        <v>361026.7301</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>153475.21255</v>
+        <v>208611.05915</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>239375.27349</v>
+        <v>239376.99605</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>263039.0399</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>724961.34926</v>
+        <v>724974.99023</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>87295.33378000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>91358.34203</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>235126.473</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>15509.79137</v>
@@ -1544,34 +1525,39 @@
         <v>34959.89564</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>58582.02175999999</v>
+        <v>58582.02176</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>69807.22017</v>
+        <v>72125.38906</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>200074.47537</v>
+        <v>200724.9751</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>150582.88435</v>
+        <v>238078.1641</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>231237.56943</v>
+        <v>251629.74135</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>193652.06874</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>555682.4419699999</v>
+        <v>556410.8343</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>406097.77651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>406837.25514</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>402078.138</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>3.2025</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>26.305</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>614.9292799999999</v>
@@ -1625,13 +1616,13 @@
         <v>8251.10591</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6767.13323</v>
+        <v>6767.133229999999</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>6839.85358</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11790.38492</v>
+        <v>17508.57342</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>14986.53245</v>
@@ -1640,16 +1631,21 @@
         <v>15885.14764</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>82240.97264000001</v>
+        <v>82268.13517000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>26979.16992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27093.94942</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34630.221</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>14894.86209</v>
@@ -1661,34 +1657,39 @@
         <v>29082.8751</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>49676.49905000001</v>
+        <v>49676.49905</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>61821.62497999999</v>
+        <v>64139.79387</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>192717.61688</v>
+        <v>193368.11661</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>138457.54068</v>
+        <v>220234.63193</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>216251.03698</v>
+        <v>236643.2089</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>177737.97466</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>473368.04712</v>
+        <v>474069.27692</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>379115.40409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>379740.10322</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>367421.612</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-1184.7459</v>
@@ -1700,34 +1701,39 @@
         <v>-16735.89884</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>554.7794</v>
+        <v>554.7794000000005</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>63318.26190999999</v>
+        <v>65433.28267</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>160528.86217</v>
+        <v>160301.755</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2892.3282</v>
+        <v>-29467.10495</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8137.704060000003</v>
+        <v>-12252.7453</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>69386.97116</v>
+        <v>69386.97116000002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>169278.90729</v>
+        <v>168564.15593</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-318802.44273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-315478.91311</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-166951.665</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>75366.01029999999</v>
@@ -1742,31 +1748,36 @@
         <v>108647.57847</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>106910.6651</v>
+        <v>175465.08828</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>228861.31562</v>
+        <v>229698.49197</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>295499.75945</v>
+        <v>396144.10795</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>655320.7281900001</v>
+        <v>1044024.0562</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>605232.89831</v>
+        <v>605232.8983100001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2335647.0681</v>
+        <v>2335647.0861</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1240111.62494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1240110.78714</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1135436.917</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>53.8775</v>
@@ -1778,19 +1789,19 @@
         <v>1166.38402</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>740.1603800000001</v>
+        <v>740.16038</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1114.71353</v>
+        <v>1453.8622</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>845.78229</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>29518.50492</v>
+        <v>51712.65872</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>179637.52865</v>
+        <v>555304.8981</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>82466.38677</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>50241.64554</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>20584.295</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>100.3676</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1072.98158</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>39283.79913</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>128903.38562</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>22060.826</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>11385.51304</v>
@@ -1859,31 +1880,36 @@
         <v>12860.1512</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6551.33144</v>
+        <v>9246.669320000001</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>13906.88189</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17821.05031</v>
+        <v>20934.10267</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>29703.93483999999</v>
+        <v>41658.48942000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>56266.29801999999</v>
+        <v>56266.29802</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>165018.75968</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>102861.54272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>102869.35056</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>130635.234</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>195.52956</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,32 +1988,37 @@
       <c r="M30" s="48" t="n">
         <v>2559.20826</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2286.549</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>20572.96022</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5965.241109999999</v>
+        <v>5965.24111</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7348.14055</v>
+        <v>7348.140550000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>3771.10764</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>560.1535099999999</v>
+        <v>56825.74582</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>66864.26198</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17148.53212</v>
+        <v>17582.05308</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>12466.70143</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>12968.98055</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>48677.13</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>30531.98645</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>35522.15394999999</v>
+        <v>35522.15395</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>54267.16993</v>
@@ -2015,31 +2056,36 @@
         <v>60229.82528000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>66043.69817</v>
+        <v>75298.04248999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>108382.22826</v>
+        <v>108554.84422</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>183461.3745</v>
+        <v>237530.9725</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>410496.00881</v>
+        <v>410504.43121</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>387261.49393</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1540855.37789</v>
+        <v>1540855.39589</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>540313.929</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>540331.2901699999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>871590.324</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2069,16 +2115,21 @@
         <v>23.96712</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>7770.152520000001</v>
+        <v>7770.15252</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>276.49953</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>288.306</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0.03164</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12821.67309</v>
@@ -2129,16 +2185,16 @@
         <v>27022.9561</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>30020.65848000001</v>
+        <v>30020.65848</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>32475.01496</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>37488.35662000001</v>
+        <v>38152.91701</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>46145.82786</v>
+        <v>66979.85123999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>18522.77727</v>
@@ -2150,13 +2206,18 @@
         <v>384664.15195</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>401790.87252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>401764.86571</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>39314.103</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>39981.27013</v>
@@ -2165,37 +2226,42 @@
         <v>24448.14524</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>76691.45739999998</v>
+        <v>76691.4574</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>43404.52585</v>
+        <v>43404.52584999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>158731.86247</v>
+        <v>215958.36875</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>122429.41432</v>
+        <v>122429.46822</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>286664.27427</v>
+        <v>321967.90313</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>499159.3476</v>
+        <v>500267.6336400001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>603932.75953</v>
+        <v>603932.7595299999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2322501.51425</v>
+        <v>2322502.25953</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>871572.5734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>871513.5268</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1477632.779</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>106.81199</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>1281.70651</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1105.657</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>104.49742</v>
@@ -2255,7 +2326,7 @@
         <v>161.06617</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8289.020059999999</v>
+        <v>8289.020060000001</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>1410.72698</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2281.50925</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3471.791</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>7203.093680000001</v>
@@ -2294,13 +2370,13 @@
         <v>1.38847</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>5431.23703</v>
+        <v>5443.88892</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>21.98243</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7597.01135</v>
+        <v>7597.011350000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>11829.08568</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>19180.83185</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3171.919</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>20979.69143</v>
@@ -2321,37 +2402,42 @@
         <v>17973.31602</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>68996.03916000001</v>
+        <v>68996.03916</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>38693.55889</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>152734.40865</v>
+        <v>209960.91493</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>118965.56123</v>
+        <v>118965.61513</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>270734.51488</v>
+        <v>305145.1830200001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>495881.18496</v>
+        <v>496989.471</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>570578.8850199999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2250968.54625</v>
+        <v>2250969.29153</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>796555.65327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>796496.60667</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1440954.829</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>11587.17561</v>
@@ -2450,7 +2546,7 @@
         <v>1467.05841</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1994.1559</v>
+        <v>2874.46473</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>1726.01673</v>
@@ -2464,14 +2560,19 @@
       <c r="M43" s="48" t="n">
         <v>52272.87252</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>28928.583</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>40749.31235</v>
+        <v>40749.31234999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>43135.7758</v>
@@ -2483,31 +2584,36 @@
         <v>46967.04871</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>51718.12271</v>
+        <v>53968.41855</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>38660.63272000001</v>
+        <v>38663.70591</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>62171.79936</v>
+        <v>72294.53831999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>119663.73682</v>
+        <v>119718.76391</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>143481.23475</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1114651.12399</v>
+        <v>1114651.22774</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>671545.1823099999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>672252.91714</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>376692.739</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>22801.26907</v>
@@ -2516,37 +2622,42 @@
         <v>26053.59214</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>46693.98999</v>
+        <v>46693.98998999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>31798.85988000001</v>
+        <v>31798.85988</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>36428.57004999999</v>
+        <v>38678.86588999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>32263.84781</v>
+        <v>32266.921</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30781.44383</v>
+        <v>40904.18279</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>105991.98282</v>
+        <v>106047.00991</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>130967.4318</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1059301.85659</v>
+        <v>1059301.96034</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>650974.33402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>651682.0688499999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>362472.917</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>17948.04328</v>
@@ -2564,7 +2675,7 @@
         <v>15289.55266</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6396.78491</v>
+        <v>6396.784909999999</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>31390.35553</v>
@@ -2581,14 +2692,19 @@
       <c r="M46" s="48" t="n">
         <v>20570.84829</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>14219.822</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-6549.31808</v>
+        <v>-6549.318079999998</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>10365.88751</v>
@@ -2600,31 +2716,36 @@
         <v>18830.78331</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-40221.05817</v>
+        <v>-29028.41635</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>228300.13075</v>
+        <v>228907.07284</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-50443.98598</v>
+        <v>-27585.43844999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>44635.34783000001</v>
+        <v>411784.91335</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-72794.12481000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-932226.6628499998</v>
+        <v>-932942.24524</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-621808.5735000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-619134.56991</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-885840.2659999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>7549.91444</v>
@@ -2639,31 +2760,36 @@
         <v>3813.17107</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>21562.81661</v>
+        <v>21562.96679</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>27988.76707</v>
+        <v>27992.91185</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>15428.60771</v>
+        <v>18955.74594</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>74865.8268</v>
+        <v>74865.82680999998</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>30524.96832</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>76365.34581999999</v>
+        <v>76398.07422999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>274300.32986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>274341.35351</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>122932.879</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.053</v>
@@ -2678,19 +2804,19 @@
         <v>1.39692</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>348.44462</v>
+        <v>348.59462</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>384.20337</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1603.08561</v>
+        <v>1616.54412</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>198.76574</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7363.004019999999</v>
+        <v>7363.00402</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>912.37728</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>102.72132</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2691.024</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7549.86144</v>
+        <v>7549.861440000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>2825.47352</v>
@@ -2717,31 +2848,36 @@
         <v>3811.77415</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21214.37199</v>
+        <v>21214.37217</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>27604.5637</v>
+        <v>27608.70848</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>13825.5221</v>
+        <v>17339.20182</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>74667.06106000001</v>
+        <v>74667.06107</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>23161.9643</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>75452.96853999999</v>
+        <v>75485.69695</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>274197.60854</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>274238.63219</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>120241.855</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1429.72772</v>
@@ -2756,31 +2892,36 @@
         <v>10987.35856</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5299.042479999999</v>
+        <v>5299.13661</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>10430.97509</v>
+        <v>10430.97809</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5548.1068</v>
+        <v>10509.57227</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>42287.72657000001</v>
+        <v>61081.72971</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>184684.12022</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>173284.75495</v>
+        <v>173301.62072</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>117270.01724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>117342.66463</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>60644.515</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>46.9479</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>295.68394</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>3164.878</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>134.82861</v>
@@ -2837,10 +2983,10 @@
         <v>21.08251</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>35.30907999999999</v>
+        <v>35.30908000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>656.97553</v>
+        <v>748.5409099999999</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>105.85605</v>
@@ -2852,19 +2998,24 @@
         <v>2013.76372</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2448.80895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2490.97593</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1736.34</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1247.95121</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>632.1533900000001</v>
+        <v>632.1533899999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>11752.71007</v>
@@ -2873,34 +3024,39 @@
         <v>10851.22328</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5262.79303</v>
+        <v>5262.88716</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>10395.19919</v>
+        <v>10395.20219</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4880.110949999999</v>
+        <v>9750.011039999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41875.80637</v>
+        <v>60669.80951</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>182073.53897</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>170982.96758</v>
+        <v>170999.83335</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>114525.52435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>114556.00476</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>55743.297</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-429.13136</v>
+        <v>-429.1313599999994</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>11304.71567</v>
@@ -2912,52 +3068,57 @@
         <v>11656.59582</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-23957.28404</v>
+        <v>-12764.58617</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>245857.92273</v>
+        <v>246469.0066</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-40563.48507</v>
+        <v>-19139.26478000002</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>77213.44806</v>
+        <v>425569.0104500001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-226953.27671</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1029146.07198</v>
+        <v>-1029845.79173</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-464778.26088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-462135.8810299999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-823551.902</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>2463.09757</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5221.02329</v>
+        <v>5221.023289999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>5169.900489999998</v>
+        <v>5169.90049</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7760.92478</v>
+        <v>7760.924779999999</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>10319.59832</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24516.78408</v>
+        <v>24591.09335</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17103.36618</v>
+        <v>17622.72419</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>31677.49938</v>
@@ -2966,16 +3127,21 @@
         <v>30217.49146</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>94850.32394999999</v>
+        <v>94854.09106999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>28287.7435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>28429.88632</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>40624.732</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-2892.22893</v>
@@ -2984,34 +3150,37 @@
         <v>6083.692379999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-74006.77423</v>
+        <v>-74006.77423000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3895.671039999999</v>
+        <v>3895.671040000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-34276.88236</v>
+        <v>-23084.18449</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>221341.13865</v>
+        <v>221877.91325</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-57666.85125</v>
+        <v>-36761.98897000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>45535.94868000001</v>
+        <v>393891.5110700001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-257170.76817</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1123996.39593</v>
+        <v>-1124699.8828</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-493066.0043799999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-490565.7673499999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-864176.634</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>99</v>
@@ -3044,28 +3216,31 @@
         <v>202</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>779</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>876</v>
+        <v>908</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>998</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>